--- a/data/output/FV2304_FV2210/ORDERS/17121.xlsx
+++ b/data/output/FV2304_FV2210/ORDERS/17121.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198" uniqueCount="255">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3219" uniqueCount="255">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -867,6 +867,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U156" totalsRowShown="0">
+  <autoFilter ref="A1:U156"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1156,7 +1186,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8171,5 +8204,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/ORDERS/17121.xlsx
+++ b/data/output/FV2304_FV2210/ORDERS/17121.xlsx
@@ -1781,7 +1781,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2"/>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4117,7 +4117,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4387,7 +4387,7 @@
         <v>240</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -4771,7 +4771,7 @@
         <v>243</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -5963,7 +5963,7 @@
         <v>246</v>
       </c>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6101,7 +6101,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -6251,7 +6251,7 @@
         <v>247</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -6769,7 +6769,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -7053,7 +7053,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -7485,7 +7485,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -7675,7 +7675,7 @@
         <v>250</v>
       </c>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8057,7 +8057,7 @@
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -8189,7 +8189,7 @@
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -8393,7 +8393,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -8597,7 +8597,7 @@
         <v>252</v>
       </c>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -8975,7 +8975,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N152" s="2"/>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N154" s="2"/>
